--- a/ASML(NASD).xlsx
+++ b/ASML(NASD).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36BAC8B-F7BE-4E3F-86C8-3702BA4F93CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A238D-2D0A-44E2-8BAC-ADC57EF5B49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14580" yWindow="1005" windowWidth="13770" windowHeight="14445" xr2:uid="{AD8F8C97-537A-4B2E-895E-9F02A435B44B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AD8F8C97-537A-4B2E-895E-9F02A435B44B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="99">
   <si>
     <t>Price</t>
   </si>
@@ -266,12 +266,6 @@
     <t>Tax %</t>
   </si>
   <si>
-    <t>CFFI</t>
-  </si>
-  <si>
-    <t>CFFF</t>
-  </si>
-  <si>
     <t>Short Term</t>
   </si>
   <si>
@@ -401,40 +395,10 @@
     <t>CFFO</t>
   </si>
   <si>
-    <t>Income Tax</t>
-  </si>
-  <si>
-    <t>CapEx</t>
-  </si>
-  <si>
-    <t>Acquisitions</t>
-  </si>
-  <si>
-    <t>Investments</t>
-  </si>
-  <si>
-    <t>Sales of investments</t>
-  </si>
-  <si>
-    <t>Debt repayments</t>
-  </si>
-  <si>
-    <t>Repurchases</t>
-  </si>
-  <si>
-    <t>Dividends</t>
-  </si>
-  <si>
-    <t>Debt.</t>
-  </si>
-  <si>
-    <t>Financing</t>
-  </si>
-  <si>
-    <t>FCF</t>
-  </si>
-  <si>
     <t>P/E</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1054,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0824565-EE7E-4A17-B4C8-B0AECC36374E}">
   <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1040,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>17</v>
@@ -1100,10 +1064,10 @@
         <v>39.89473684210526</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="15" x14ac:dyDescent="0.25">
@@ -1123,7 +1087,7 @@
         <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15" x14ac:dyDescent="0.25">
@@ -1156,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -1170,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:13" ht="15" x14ac:dyDescent="0.25">
@@ -1184,7 +1148,7 @@
     </row>
     <row r="9" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="1">
         <v>7500</v>
@@ -1214,30 +1178,30 @@
     </row>
     <row r="16" spans="2:13" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1249,11 +1213,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37152A34-9113-4AFD-94ED-65E1F388EF60}">
   <dimension ref="A1:CM81"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA23" sqref="AA23"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1234,7 @@
     <col min="18" max="18" width="11.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="19" max="24" width="9.140625" style="7"/>
     <col min="25" max="25" width="11.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="7"/>
+    <col min="26" max="26" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="9.140625" style="7"/>
   </cols>
@@ -1572,66 +1536,66 @@
         <v>50</v>
       </c>
       <c r="C5" s="11">
-        <f>C3+C4</f>
+        <f t="shared" ref="C5:M5" si="2">C3+C4</f>
         <v>3534.3999999999996</v>
       </c>
       <c r="D5" s="11">
-        <f>D3+D4</f>
+        <f t="shared" si="2"/>
         <v>5430.5</v>
       </c>
       <c r="E5" s="11">
-        <f>E3+E4</f>
+        <f t="shared" si="2"/>
         <v>5778.2999999999993</v>
       </c>
       <c r="F5" s="11">
-        <f>F3+F4</f>
+        <f t="shared" si="2"/>
         <v>6430.2</v>
       </c>
       <c r="G5" s="11">
-        <f>G3+G4</f>
+        <f t="shared" si="2"/>
         <v>6746.2000000000007</v>
       </c>
       <c r="H5" s="11">
-        <f>H3+H4</f>
+        <f t="shared" si="2"/>
         <v>6902.3</v>
       </c>
       <c r="I5" s="11">
-        <f>I3+I4</f>
+        <f t="shared" si="2"/>
         <v>6673</v>
       </c>
       <c r="J5" s="11">
-        <f>J3+J4</f>
+        <f t="shared" si="2"/>
         <v>7237</v>
       </c>
       <c r="K5" s="11">
-        <f>K3+K4</f>
+        <f t="shared" si="2"/>
         <v>5290</v>
       </c>
       <c r="L5" s="11">
-        <f>L3+L4</f>
+        <f t="shared" si="2"/>
         <v>6242.7999999999993</v>
       </c>
       <c r="M5" s="11">
-        <f>M3+M4</f>
+        <f t="shared" si="2"/>
         <v>7467.3</v>
       </c>
       <c r="N5" s="11">
         <v>6750</v>
       </c>
       <c r="O5" s="11">
-        <f t="shared" ref="O5:R5" si="2">O3+O4</f>
+        <f t="shared" ref="O5:R5" si="3">O3+O4</f>
         <v>7557.3860000000004</v>
       </c>
       <c r="P5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7648.6811200000002</v>
       </c>
       <c r="Q5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7741.2036164000001</v>
       </c>
       <c r="R5" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7834.9720514680012</v>
       </c>
       <c r="U5" s="11">
@@ -1650,6 +1614,22 @@
         <f>+X4+X3</f>
         <v>30782.242787868003</v>
       </c>
+      <c r="Y5" s="11">
+        <f>+X5*1.08</f>
+        <v>33244.822210897444</v>
+      </c>
+      <c r="Z5" s="11">
+        <f t="shared" ref="Z5:AB5" si="4">+Y5*1.08</f>
+        <v>35904.407987769242</v>
+      </c>
+      <c r="AA5" s="11">
+        <f t="shared" si="4"/>
+        <v>38776.760626790783</v>
+      </c>
+      <c r="AB5" s="11">
+        <f t="shared" si="4"/>
+        <v>41878.90147693405</v>
+      </c>
       <c r="AC5" s="11">
         <v>44000</v>
       </c>
@@ -1700,32 +1680,48 @@
         <v>3254.2649999999999</v>
       </c>
       <c r="P6" s="9">
-        <f t="shared" ref="P6:R6" si="3">+O6*1.05</f>
+        <f t="shared" ref="P6:R6" si="5">+O6*1.05</f>
         <v>3416.9782500000001</v>
       </c>
       <c r="Q6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3587.8271625000002</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3767.2185206250006</v>
       </c>
       <c r="U6" s="9">
-        <f t="shared" si="1"/>
-        <v>10473.299999999999</v>
+        <f>+U5-U7</f>
+        <v>10374.965999999999</v>
       </c>
       <c r="V6" s="9">
-        <f>+SUM(G6:J6)</f>
-        <v>13422.400000000001</v>
+        <f>+V5-V7</f>
+        <v>13503.665000000001</v>
       </c>
       <c r="W6" s="9">
-        <f>+SUM(K6:N6)</f>
-        <v>12397.199999999999</v>
+        <f>+W5-W7</f>
+        <v>12969.026</v>
       </c>
       <c r="X6" s="9">
-        <f>+SUM(O6:R6)</f>
-        <v>14026.288933125001</v>
+        <f>+X5-X7</f>
+        <v>15083.298966055321</v>
+      </c>
+      <c r="Y6" s="9">
+        <f t="shared" ref="Y6" si="6">+Y5-Y7</f>
+        <v>16289.962883339747</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" ref="Z6" si="7">+Z5-Z7</f>
+        <v>17593.159914006927</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" ref="AA6" si="8">+AA5-AA7</f>
+        <v>19000.612707127482</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" ref="AB6" si="9">+AB5-AB7</f>
+        <v>20520.661723697685</v>
       </c>
       <c r="AC6" s="9">
         <f>+AC5-AC7</f>
@@ -1737,47 +1733,47 @@
         <v>39</v>
       </c>
       <c r="C7" s="9">
-        <f>C5-C6</f>
+        <f t="shared" ref="C7:M7" si="10">C5-C6</f>
         <v>1730.9999999999995</v>
       </c>
       <c r="D7" s="9">
-        <f>D5-D6</f>
+        <f t="shared" si="10"/>
         <v>2664.5</v>
       </c>
       <c r="E7" s="9">
-        <f>E5-E6</f>
+        <f t="shared" si="10"/>
         <v>2993.6999999999994</v>
       </c>
       <c r="F7" s="9">
-        <f>F5-F6</f>
+        <f t="shared" si="10"/>
         <v>3310.8999999999996</v>
       </c>
       <c r="G7" s="9">
-        <f>G5-G6</f>
+        <f t="shared" si="10"/>
         <v>3413.2000000000007</v>
       </c>
       <c r="H7" s="9">
-        <f>H5-H6</f>
+        <f t="shared" si="10"/>
         <v>3544</v>
       </c>
       <c r="I7" s="9">
-        <f>I5-I6</f>
+        <f t="shared" si="10"/>
         <v>3461.6</v>
       </c>
       <c r="J7" s="9">
-        <f>J5-J6</f>
+        <f t="shared" si="10"/>
         <v>3717.3</v>
       </c>
       <c r="K7" s="9">
-        <f>K5-K6</f>
+        <f t="shared" si="10"/>
         <v>2696.6</v>
       </c>
       <c r="L7" s="9">
-        <f>L5-L6</f>
+        <f t="shared" si="10"/>
         <v>3212.1999999999994</v>
       </c>
       <c r="M7" s="9">
-        <f>M5-M6</f>
+        <f t="shared" si="10"/>
         <v>3793.4</v>
       </c>
       <c r="N7" s="11">
@@ -1785,38 +1781,54 @@
         <v>3442.5</v>
       </c>
       <c r="O7" s="11">
-        <f t="shared" ref="O7:R7" si="4">+O5*0.51</f>
+        <f t="shared" ref="O7:R7" si="11">+O5*0.51</f>
         <v>3854.2668600000002</v>
       </c>
       <c r="P7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3900.8273712</v>
       </c>
       <c r="Q7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3948.0138443640003</v>
       </c>
       <c r="R7" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3995.8357462486806</v>
       </c>
       <c r="U7" s="11">
-        <f>+U5-U6</f>
-        <v>10700.099999999999</v>
+        <f>+U5*0.51</f>
+        <v>10798.433999999999</v>
       </c>
       <c r="V7" s="11">
-        <f>+V5-V6</f>
-        <v>14136.100000000002</v>
+        <f>+V5*0.51</f>
+        <v>14054.835000000003</v>
       </c>
       <c r="W7" s="11">
-        <f>+W5-W6</f>
-        <v>14070.200000000003</v>
+        <f>+W5*0.51</f>
+        <v>13498.374000000002</v>
       </c>
       <c r="X7" s="11">
-        <f>+X5-X6</f>
-        <v>16755.953854743002</v>
-      </c>
-      <c r="AC7" s="9">
+        <f>+X5*0.51</f>
+        <v>15698.943821812682</v>
+      </c>
+      <c r="Y7" s="11">
+        <f t="shared" ref="Y7" si="12">+Y5*0.51</f>
+        <v>16954.859327557697</v>
+      </c>
+      <c r="Z7" s="11">
+        <f>+Z5*0.51</f>
+        <v>18311.248073762315</v>
+      </c>
+      <c r="AA7" s="11">
+        <f t="shared" ref="AA7:AB7" si="13">+AA5*0.51</f>
+        <v>19776.147919663301</v>
+      </c>
+      <c r="AB7" s="11">
+        <f t="shared" si="13"/>
+        <v>21358.239753236365</v>
+      </c>
+      <c r="AC7" s="11">
         <f>+AC5*0.56</f>
         <v>24640.000000000004</v>
       </c>
@@ -1867,15 +1879,15 @@
         <v>1083.818</v>
       </c>
       <c r="P8" s="9">
-        <f t="shared" ref="P8:R8" si="5">+O8*1.02</f>
+        <f t="shared" ref="P8:R8" si="14">+O8*1.02</f>
         <v>1105.4943599999999</v>
       </c>
       <c r="Q8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1127.6042471999999</v>
       </c>
       <c r="R8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1150.1563321439999</v>
       </c>
       <c r="U8" s="9">
@@ -1894,6 +1906,21 @@
         <f>+SUM(O8:R8)</f>
         <v>4467.0729393439997</v>
       </c>
+      <c r="Y8" s="9">
+        <v>4500</v>
+      </c>
+      <c r="Z8" s="9">
+        <f>+Y8*1.02</f>
+        <v>4590</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" ref="AA8:AB8" si="15">+Z8*1.02</f>
+        <v>4681.8</v>
+      </c>
+      <c r="AB8" s="9">
+        <f t="shared" si="15"/>
+        <v>4775.4360000000006</v>
+      </c>
       <c r="AC8" s="9">
         <f>+AC5*0.15</f>
         <v>6600</v>
@@ -1945,15 +1972,15 @@
         <v>288.08199999999999</v>
       </c>
       <c r="P9" s="9">
-        <f t="shared" ref="P9:R9" si="6">+O9*1.02</f>
+        <f t="shared" ref="P9:R9" si="16">+O9*1.02</f>
         <v>293.84363999999999</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>299.72051279999999</v>
       </c>
       <c r="R9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>305.71492305599998</v>
       </c>
       <c r="U9" s="9">
@@ -1972,6 +1999,21 @@
         <f>+SUM(O9:R9)</f>
         <v>1187.3610758559998</v>
       </c>
+      <c r="Y9" s="9">
+        <v>1500</v>
+      </c>
+      <c r="Z9" s="9">
+        <f>+Y9*1.02</f>
+        <v>1530</v>
+      </c>
+      <c r="AA9" s="9">
+        <f t="shared" ref="AA9:AB9" si="17">+Z9*1.02</f>
+        <v>1560.6000000000001</v>
+      </c>
+      <c r="AB9" s="9">
+        <f t="shared" si="17"/>
+        <v>1591.8120000000001</v>
+      </c>
       <c r="AC9" s="9">
         <f>+AC5*0.04</f>
         <v>1760</v>
@@ -1982,67 +2024,67 @@
         <v>43</v>
       </c>
       <c r="C10" s="9">
-        <f>C8+C9</f>
+        <f t="shared" ref="C10:R10" si="18">C8+C9</f>
         <v>946.40000000000009</v>
       </c>
       <c r="D10" s="9">
-        <f>D8+D9</f>
+        <f t="shared" si="18"/>
         <v>1011.1</v>
       </c>
       <c r="E10" s="9">
-        <f>E8+E9</f>
+        <f t="shared" si="18"/>
         <v>1055.2</v>
       </c>
       <c r="F10" s="9">
-        <f>F8+F9</f>
+        <f t="shared" si="18"/>
         <v>1186.6999999999998</v>
       </c>
       <c r="G10" s="9">
-        <f>G8+G9</f>
+        <f t="shared" si="18"/>
         <v>1208.2</v>
       </c>
       <c r="H10" s="9">
-        <f>H8+H9</f>
+        <f t="shared" si="18"/>
         <v>1281</v>
       </c>
       <c r="I10" s="9">
-        <f>I8+I9</f>
+        <f t="shared" si="18"/>
         <v>1279.2</v>
       </c>
       <c r="J10" s="9">
-        <f>J8+J9</f>
+        <f t="shared" si="18"/>
         <v>1325.4</v>
       </c>
       <c r="K10" s="9">
-        <f>K8+K9</f>
+        <f t="shared" si="18"/>
         <v>1305.2</v>
       </c>
       <c r="L10" s="9">
-        <f>L8+L9</f>
+        <f t="shared" si="18"/>
         <v>1377.6</v>
       </c>
       <c r="M10" s="9">
-        <f>M8+M9</f>
+        <f t="shared" si="18"/>
         <v>1352.2</v>
       </c>
       <c r="N10" s="9">
-        <f>N8+N9</f>
+        <f t="shared" si="18"/>
         <v>1345</v>
       </c>
       <c r="O10" s="9">
-        <f>O8+O9</f>
+        <f t="shared" si="18"/>
         <v>1371.9</v>
       </c>
       <c r="P10" s="9">
-        <f>P8+P9</f>
+        <f t="shared" si="18"/>
         <v>1399.338</v>
       </c>
       <c r="Q10" s="9">
-        <f>Q8+Q9</f>
+        <f t="shared" si="18"/>
         <v>1427.32476</v>
       </c>
       <c r="R10" s="9">
-        <f>R8+R9</f>
+        <f t="shared" si="18"/>
         <v>1455.8712551999997</v>
       </c>
       <c r="U10" s="9">
@@ -2061,6 +2103,22 @@
         <f>+X9+X8</f>
         <v>5654.4340151999995</v>
       </c>
+      <c r="Y10" s="9">
+        <f t="shared" ref="Y10:Z10" si="19">+Y9+Y8</f>
+        <v>6000</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="19"/>
+        <v>6120</v>
+      </c>
+      <c r="AA10" s="9">
+        <f t="shared" ref="AA10" si="20">+AA9+AA8</f>
+        <v>6242.4000000000005</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" ref="AB10" si="21">+AB9+AB8</f>
+        <v>6367.2480000000005</v>
+      </c>
       <c r="AC10" s="9">
         <f>+AC9+AC8</f>
         <v>8360</v>
@@ -2071,84 +2129,100 @@
         <v>42</v>
       </c>
       <c r="C11" s="11">
-        <f>C7-C10</f>
+        <f t="shared" ref="C11:M11" si="22">C7-C10</f>
         <v>784.59999999999945</v>
       </c>
       <c r="D11" s="11">
-        <f>D7-D10</f>
+        <f t="shared" si="22"/>
         <v>1653.4</v>
       </c>
       <c r="E11" s="11">
-        <f>E7-E10</f>
+        <f t="shared" si="22"/>
         <v>1938.4999999999993</v>
       </c>
       <c r="F11" s="11">
-        <f>F7-F10</f>
+        <f t="shared" si="22"/>
         <v>2124.1999999999998</v>
       </c>
       <c r="G11" s="11">
-        <f>G7-G10</f>
+        <f t="shared" si="22"/>
         <v>2205.0000000000009</v>
       </c>
       <c r="H11" s="11">
-        <f>H7-H10</f>
+        <f t="shared" si="22"/>
         <v>2263</v>
       </c>
       <c r="I11" s="11">
-        <f>I7-I10</f>
+        <f t="shared" si="22"/>
         <v>2182.3999999999996</v>
       </c>
       <c r="J11" s="11">
-        <f>J7-J10</f>
+        <f t="shared" si="22"/>
         <v>2391.9</v>
       </c>
       <c r="K11" s="11">
-        <f>K7-K10</f>
+        <f t="shared" si="22"/>
         <v>1391.3999999999999</v>
       </c>
       <c r="L11" s="11">
-        <f>L7-L10</f>
+        <f t="shared" si="22"/>
         <v>1834.5999999999995</v>
       </c>
       <c r="M11" s="11">
-        <f>M7-M10</f>
+        <f t="shared" si="22"/>
         <v>2441.1999999999998</v>
       </c>
       <c r="N11" s="11">
-        <f t="shared" ref="N11:R11" si="7">N7-N10</f>
+        <f t="shared" ref="N11:R11" si="23">N7-N10</f>
         <v>2097.5</v>
       </c>
       <c r="O11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2482.3668600000001</v>
       </c>
       <c r="P11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2501.4893712000003</v>
       </c>
       <c r="Q11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2520.6890843640003</v>
       </c>
       <c r="R11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="23"/>
         <v>2539.9644910486809</v>
       </c>
       <c r="U11" s="11">
         <f>+U7-U10</f>
-        <v>6500.6999999999989</v>
+        <v>6599.0339999999997</v>
       </c>
       <c r="V11" s="11">
         <f>+V7-V10</f>
-        <v>9042.3000000000029</v>
+        <v>8961.0350000000035</v>
       </c>
       <c r="W11" s="11">
         <f>+W7-W10</f>
-        <v>8690.2000000000025</v>
+        <v>8118.3740000000016</v>
       </c>
       <c r="X11" s="11">
         <f>+X7-X10</f>
-        <v>11101.519839543002</v>
+        <v>10044.509806612681</v>
+      </c>
+      <c r="Y11" s="11">
+        <f t="shared" ref="Y11" si="24">+Y7-Y10</f>
+        <v>10954.859327557697</v>
+      </c>
+      <c r="Z11" s="11">
+        <f t="shared" ref="Z11" si="25">+Z7-Z10</f>
+        <v>12191.248073762315</v>
+      </c>
+      <c r="AA11" s="11">
+        <f t="shared" ref="AA11" si="26">+AA7-AA10</f>
+        <v>13533.747919663299</v>
+      </c>
+      <c r="AB11" s="11">
+        <f t="shared" ref="AB11" si="27">+AB7-AB10</f>
+        <v>14990.991753236365</v>
       </c>
       <c r="AC11" s="11">
         <f>+AC7-AC10</f>
@@ -2223,6 +2297,19 @@
         <f>+SUM(O12:R12)</f>
         <v>40</v>
       </c>
+      <c r="Y12" s="9">
+        <f t="shared" ref="Y12" si="28">+SUM(P12:S12)</f>
+        <v>30</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>40</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>40</v>
+      </c>
       <c r="AC12" s="9">
         <v>50</v>
       </c>
@@ -2232,84 +2319,97 @@
         <v>45</v>
       </c>
       <c r="C13" s="9">
-        <f>C11+C12</f>
+        <f t="shared" ref="C13:M13" si="29">C11+C12</f>
         <v>800.19999999999948</v>
       </c>
       <c r="D13" s="9">
-        <f>D11+D12</f>
+        <f t="shared" si="29"/>
         <v>1664.2</v>
       </c>
       <c r="E13" s="9">
-        <f>E11+E12</f>
+        <f t="shared" si="29"/>
         <v>1953.5999999999992</v>
       </c>
       <c r="F13" s="9">
-        <f>F11+F12</f>
+        <f t="shared" si="29"/>
         <v>2127.2999999999997</v>
       </c>
       <c r="G13" s="9">
-        <f>G11+G12</f>
+        <f t="shared" si="29"/>
         <v>2217.2000000000007</v>
       </c>
       <c r="H13" s="9">
-        <f>H11+H12</f>
+        <f t="shared" si="29"/>
         <v>2279.6999999999998</v>
       </c>
       <c r="I13" s="9">
-        <f>I11+I12</f>
+        <f t="shared" si="29"/>
         <v>2189.4999999999995</v>
       </c>
       <c r="J13" s="9">
-        <f>J11+J12</f>
+        <f t="shared" si="29"/>
         <v>2397.1</v>
       </c>
       <c r="K13" s="9">
-        <f>K11+K12</f>
+        <f t="shared" si="29"/>
         <v>1417.6</v>
       </c>
       <c r="L13" s="9">
-        <f>L11+L12</f>
+        <f t="shared" si="29"/>
         <v>1846.4999999999995</v>
       </c>
       <c r="M13" s="9">
-        <f>M11+M12</f>
+        <f t="shared" si="29"/>
         <v>2440.3999999999996</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" ref="N13:R13" si="8">N11+N12</f>
+        <f t="shared" ref="N13:R13" si="30">N11+N12</f>
         <v>2102.5</v>
       </c>
       <c r="O13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>2492.3668600000001</v>
       </c>
       <c r="P13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>2511.4893712000003</v>
       </c>
       <c r="Q13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>2530.6890843640003</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="30"/>
         <v>2549.9644910486809</v>
       </c>
       <c r="U13" s="9">
         <f>+U11-U12</f>
-        <v>6456.0999999999985</v>
+        <v>6554.4339999999993</v>
       </c>
       <c r="V13" s="9">
         <f>+V11-V12</f>
-        <v>9001.1000000000022</v>
+        <v>8919.8350000000028</v>
       </c>
       <c r="W13" s="9">
         <f>+W11-W12</f>
-        <v>8647.9000000000033</v>
+        <v>8076.0740000000014</v>
       </c>
       <c r="X13" s="9">
         <f>+X11-X12</f>
-        <v>11061.519839543002</v>
+        <v>10004.509806612681</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" ref="Y13" si="31">+Y11-Y12</f>
+        <v>10924.859327557697</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>10800</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>10800</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>10800</v>
       </c>
       <c r="AC13" s="9">
         <f>+AC11-AC12</f>
@@ -2385,6 +2485,18 @@
         <f>+SUM(O14:R14)</f>
         <v>1276</v>
       </c>
+      <c r="Y14" s="9">
+        <v>1276</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>1276</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>1276</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>1276</v>
+      </c>
       <c r="AC14" s="9">
         <v>1500</v>
       </c>
@@ -2458,6 +2570,18 @@
         <f>+SUM(O15:R15)</f>
         <v>204</v>
       </c>
+      <c r="Y15" s="9">
+        <v>204</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>204</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>204</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>204</v>
+      </c>
       <c r="AC15" s="9">
         <v>200</v>
       </c>
@@ -2467,351 +2591,352 @@
         <v>48</v>
       </c>
       <c r="C16" s="11">
-        <f>C13-C14+C15</f>
+        <f t="shared" ref="C16:M16" si="32">C13-C14+C15</f>
         <v>726.49999999999955</v>
       </c>
       <c r="D16" s="11">
-        <f>D13-D14+D15</f>
+        <f t="shared" si="32"/>
         <v>1432.5</v>
       </c>
       <c r="E16" s="11">
-        <f>E13-E14+E15</f>
+        <f t="shared" si="32"/>
         <v>1731.6999999999991</v>
       </c>
       <c r="F16" s="11">
-        <f>F13-F14+F15</f>
+        <f t="shared" si="32"/>
         <v>1822.6999999999998</v>
       </c>
       <c r="G16" s="11">
-        <f>G13-G14+G15</f>
+        <f t="shared" si="32"/>
         <v>1955.8000000000009</v>
       </c>
       <c r="H16" s="11">
-        <f>H13-H14+H15</f>
+        <f t="shared" si="32"/>
         <v>1941.6999999999998</v>
       </c>
       <c r="I16" s="11">
-        <f>I13-I14+I15</f>
+        <f t="shared" si="32"/>
         <v>1893.3999999999994</v>
       </c>
       <c r="J16" s="11">
-        <f>J13-J14+J15</f>
+        <f t="shared" si="32"/>
         <v>2048.1</v>
       </c>
       <c r="K16" s="11">
-        <f>K13-K14+K15</f>
+        <f t="shared" si="32"/>
         <v>1223.8</v>
       </c>
       <c r="L16" s="11">
-        <f>L13-L14+L15</f>
+        <f t="shared" si="32"/>
         <v>1601.6999999999996</v>
       </c>
       <c r="M16" s="11">
-        <f>M13-M14+M15</f>
+        <f t="shared" si="32"/>
         <v>2076.4999999999995</v>
       </c>
       <c r="N16" s="11">
-        <f t="shared" ref="N16:R16" si="9">N13-N14+N15</f>
+        <f t="shared" ref="N16:R16" si="33">N13-N14+N15</f>
         <v>1835</v>
       </c>
       <c r="O16" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>2224.3668600000001</v>
       </c>
       <c r="P16" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>2243.4893712000003</v>
       </c>
       <c r="Q16" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>2262.6890843640003</v>
       </c>
       <c r="R16" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="33"/>
         <v>2281.9644910486809</v>
       </c>
       <c r="U16" s="11">
         <f>+U13-U14-U15</f>
-        <v>5348.1999999999989</v>
+        <v>5446.5339999999997</v>
       </c>
       <c r="V16" s="11">
         <f>+V13-V14-V15</f>
-        <v>7374.0000000000018</v>
+        <v>7292.7350000000024</v>
       </c>
       <c r="W16" s="11">
         <f>+W13-W14-W15</f>
-        <v>7166.4333333333361</v>
+        <v>6594.6073333333343</v>
       </c>
       <c r="X16" s="11">
         <f>+X13-X14-X15</f>
-        <v>9581.5198395430016</v>
+        <v>8524.5098066126811</v>
       </c>
       <c r="Y16" s="11">
-        <f>+X16+$Y17</f>
-        <v>10571.215871634402</v>
+        <f>+Y13-Y14-Y15</f>
+        <v>9444.8593275576968</v>
       </c>
       <c r="Z16" s="11">
-        <f t="shared" ref="Z16:AB16" si="10">+Y16+$Y17</f>
-        <v>11560.911903725802</v>
+        <f>+Z13-Z14-Z15</f>
+        <v>9320</v>
       </c>
       <c r="AA16" s="11">
-        <f t="shared" si="10"/>
-        <v>12550.607935817203</v>
+        <f>+AA13-AA14-AA15</f>
+        <v>9320</v>
       </c>
       <c r="AB16" s="11">
-        <f t="shared" si="10"/>
-        <v>13540.303967908603</v>
+        <f>+AB13-AB14-AB15</f>
+        <v>9320</v>
       </c>
       <c r="AC16" s="11">
-        <v>14530</v>
-      </c>
-      <c r="AD16" s="10">
-        <f t="shared" ref="AD16:CK16" si="11">+AC16*(1+$AA20)</f>
-        <v>14384.7</v>
-      </c>
-      <c r="AE16" s="10">
-        <f t="shared" si="11"/>
-        <v>14240.853000000001</v>
-      </c>
-      <c r="AF16" s="10">
-        <f t="shared" si="11"/>
-        <v>14098.44447</v>
-      </c>
-      <c r="AG16" s="10">
-        <f t="shared" si="11"/>
-        <v>13957.460025300001</v>
-      </c>
-      <c r="AH16" s="10">
-        <f t="shared" si="11"/>
-        <v>13817.885425047001</v>
-      </c>
-      <c r="AI16" s="10">
-        <f t="shared" si="11"/>
-        <v>13679.70657079653</v>
-      </c>
-      <c r="AJ16" s="10">
-        <f t="shared" si="11"/>
-        <v>13542.909505088564</v>
-      </c>
-      <c r="AK16" s="10">
-        <f t="shared" si="11"/>
-        <v>13407.480410037679</v>
-      </c>
-      <c r="AL16" s="10">
-        <f t="shared" si="11"/>
-        <v>13273.405605937302</v>
-      </c>
-      <c r="AM16" s="10">
-        <f t="shared" si="11"/>
-        <v>13140.671549877929</v>
-      </c>
-      <c r="AN16" s="10">
-        <f t="shared" si="11"/>
-        <v>13009.26483437915</v>
-      </c>
-      <c r="AO16" s="10">
-        <f t="shared" si="11"/>
-        <v>12879.172186035357</v>
-      </c>
-      <c r="AP16" s="10">
-        <f t="shared" si="11"/>
-        <v>12750.380464175003</v>
-      </c>
-      <c r="AQ16" s="10">
-        <f t="shared" si="11"/>
-        <v>12622.876659533253</v>
-      </c>
-      <c r="AR16" s="10">
-        <f t="shared" si="11"/>
-        <v>12496.647892937921</v>
-      </c>
-      <c r="AS16" s="10">
-        <f t="shared" si="11"/>
-        <v>12371.681414008541</v>
-      </c>
-      <c r="AT16" s="10">
-        <f t="shared" si="11"/>
-        <v>12247.964599868455</v>
-      </c>
-      <c r="AU16" s="10">
-        <f t="shared" si="11"/>
-        <v>12125.484953869771</v>
-      </c>
-      <c r="AV16" s="10">
-        <f t="shared" si="11"/>
-        <v>12004.230104331073</v>
-      </c>
-      <c r="AW16" s="10">
-        <f t="shared" si="11"/>
-        <v>11884.187803287761</v>
-      </c>
-      <c r="AX16" s="10">
-        <f t="shared" si="11"/>
-        <v>11765.345925254884</v>
-      </c>
-      <c r="AY16" s="10">
-        <f t="shared" si="11"/>
-        <v>11647.692466002334</v>
-      </c>
-      <c r="AZ16" s="10">
-        <f t="shared" si="11"/>
-        <v>11531.215541342312</v>
-      </c>
-      <c r="BA16" s="10">
-        <f t="shared" si="11"/>
-        <v>11415.903385928888</v>
-      </c>
-      <c r="BB16" s="10">
-        <f t="shared" si="11"/>
-        <v>11301.7443520696</v>
-      </c>
-      <c r="BC16" s="10">
-        <f t="shared" si="11"/>
-        <v>11188.726908548904</v>
-      </c>
-      <c r="BD16" s="10">
-        <f t="shared" si="11"/>
-        <v>11076.839639463415</v>
-      </c>
-      <c r="BE16" s="10">
-        <f t="shared" si="11"/>
-        <v>10966.07124306878</v>
-      </c>
-      <c r="BF16" s="10">
-        <f t="shared" si="11"/>
-        <v>10856.410530638092</v>
-      </c>
-      <c r="BG16" s="10">
-        <f t="shared" si="11"/>
-        <v>10747.846425331711</v>
-      </c>
-      <c r="BH16" s="10">
-        <f t="shared" si="11"/>
-        <v>10640.367961078393</v>
-      </c>
-      <c r="BI16" s="10">
-        <f t="shared" si="11"/>
-        <v>10533.964281467608</v>
-      </c>
-      <c r="BJ16" s="10">
-        <f t="shared" si="11"/>
-        <v>10428.624638652931</v>
-      </c>
-      <c r="BK16" s="10">
-        <f t="shared" si="11"/>
-        <v>10324.338392266402</v>
-      </c>
-      <c r="BL16" s="10">
-        <f t="shared" si="11"/>
-        <v>10221.095008343738</v>
-      </c>
-      <c r="BM16" s="10">
-        <f t="shared" si="11"/>
-        <v>10118.884058260301</v>
-      </c>
-      <c r="BN16" s="10">
-        <f t="shared" si="11"/>
-        <v>10017.695217677698</v>
-      </c>
-      <c r="BO16" s="10">
-        <f t="shared" si="11"/>
-        <v>9917.5182655009212</v>
-      </c>
-      <c r="BP16" s="10">
-        <f t="shared" si="11"/>
-        <v>9818.3430828459113</v>
-      </c>
-      <c r="BQ16" s="10">
-        <f t="shared" si="11"/>
-        <v>9720.1596520174517</v>
-      </c>
-      <c r="BR16" s="10">
-        <f t="shared" si="11"/>
-        <v>9622.9580554972763</v>
-      </c>
-      <c r="BS16" s="10">
-        <f t="shared" si="11"/>
-        <v>9526.7284749423034</v>
-      </c>
-      <c r="BT16" s="10">
-        <f t="shared" si="11"/>
-        <v>9431.4611901928802</v>
-      </c>
-      <c r="BU16" s="10">
-        <f t="shared" si="11"/>
-        <v>9337.1465782909509</v>
-      </c>
-      <c r="BV16" s="10">
-        <f t="shared" si="11"/>
-        <v>9243.7751125080413</v>
-      </c>
-      <c r="BW16" s="10">
-        <f t="shared" si="11"/>
-        <v>9151.3373613829608</v>
-      </c>
-      <c r="BX16" s="10">
-        <f t="shared" si="11"/>
-        <v>9059.8239877691303</v>
-      </c>
-      <c r="BY16" s="10">
-        <f t="shared" si="11"/>
-        <v>8969.2257478914398</v>
-      </c>
-      <c r="BZ16" s="10">
-        <f t="shared" si="11"/>
-        <v>8879.5334904125248</v>
-      </c>
-      <c r="CA16" s="10">
-        <f t="shared" si="11"/>
-        <v>8790.7381555083994</v>
-      </c>
-      <c r="CB16" s="10">
-        <f t="shared" si="11"/>
-        <v>8702.8307739533157</v>
-      </c>
-      <c r="CC16" s="10">
-        <f t="shared" si="11"/>
-        <v>8615.8024662137832</v>
-      </c>
-      <c r="CD16" s="10">
-        <f t="shared" si="11"/>
-        <v>8529.6444415516453</v>
-      </c>
-      <c r="CE16" s="10">
-        <f t="shared" si="11"/>
-        <v>8444.3479971361285</v>
-      </c>
-      <c r="CF16" s="10">
-        <f t="shared" si="11"/>
-        <v>8359.9045171647667</v>
-      </c>
-      <c r="CG16" s="10">
-        <f t="shared" si="11"/>
-        <v>8276.3054719931188</v>
-      </c>
-      <c r="CH16" s="10">
-        <f t="shared" si="11"/>
-        <v>8193.5424172731873</v>
-      </c>
-      <c r="CI16" s="10">
-        <f t="shared" si="11"/>
-        <v>8111.6069931004549</v>
-      </c>
-      <c r="CJ16" s="10">
-        <f t="shared" si="11"/>
-        <v>8030.4909231694501</v>
-      </c>
-      <c r="CK16" s="10">
-        <f t="shared" si="11"/>
-        <v>7950.1860139377559</v>
-      </c>
-      <c r="CL16" s="10">
-        <f t="shared" ref="CL16:CM16" si="12">+CK16*(1+$AA20)</f>
-        <v>7870.6841537983782</v>
-      </c>
-      <c r="CM16" s="10">
-        <f t="shared" si="12"/>
-        <v>7791.9773122603947</v>
+        <f>+AC13-AC14-AC15</f>
+        <v>14530.000000000004</v>
+      </c>
+      <c r="AD16" s="11">
+        <f t="shared" ref="Z16:CK16" si="34">+AC16*(1+$AA20)</f>
+        <v>14384.700000000004</v>
+      </c>
+      <c r="AE16" s="11">
+        <f t="shared" si="34"/>
+        <v>14240.853000000005</v>
+      </c>
+      <c r="AF16" s="11">
+        <f t="shared" si="34"/>
+        <v>14098.444470000004</v>
+      </c>
+      <c r="AG16" s="11">
+        <f t="shared" si="34"/>
+        <v>13957.460025300004</v>
+      </c>
+      <c r="AH16" s="11">
+        <f t="shared" si="34"/>
+        <v>13817.885425047005</v>
+      </c>
+      <c r="AI16" s="11">
+        <f t="shared" si="34"/>
+        <v>13679.706570796534</v>
+      </c>
+      <c r="AJ16" s="11">
+        <f t="shared" si="34"/>
+        <v>13542.909505088568</v>
+      </c>
+      <c r="AK16" s="11">
+        <f t="shared" si="34"/>
+        <v>13407.480410037682</v>
+      </c>
+      <c r="AL16" s="11">
+        <f t="shared" si="34"/>
+        <v>13273.405605937305</v>
+      </c>
+      <c r="AM16" s="11">
+        <f t="shared" si="34"/>
+        <v>13140.671549877932</v>
+      </c>
+      <c r="AN16" s="11">
+        <f t="shared" si="34"/>
+        <v>13009.264834379153</v>
+      </c>
+      <c r="AO16" s="11">
+        <f t="shared" si="34"/>
+        <v>12879.172186035361</v>
+      </c>
+      <c r="AP16" s="11">
+        <f t="shared" si="34"/>
+        <v>12750.380464175007</v>
+      </c>
+      <c r="AQ16" s="11">
+        <f t="shared" si="34"/>
+        <v>12622.876659533256</v>
+      </c>
+      <c r="AR16" s="11">
+        <f t="shared" si="34"/>
+        <v>12496.647892937923</v>
+      </c>
+      <c r="AS16" s="11">
+        <f t="shared" si="34"/>
+        <v>12371.681414008543</v>
+      </c>
+      <c r="AT16" s="11">
+        <f t="shared" si="34"/>
+        <v>12247.964599868457</v>
+      </c>
+      <c r="AU16" s="11">
+        <f t="shared" si="34"/>
+        <v>12125.484953869773</v>
+      </c>
+      <c r="AV16" s="11">
+        <f t="shared" si="34"/>
+        <v>12004.230104331074</v>
+      </c>
+      <c r="AW16" s="11">
+        <f t="shared" si="34"/>
+        <v>11884.187803287763</v>
+      </c>
+      <c r="AX16" s="11">
+        <f t="shared" si="34"/>
+        <v>11765.345925254886</v>
+      </c>
+      <c r="AY16" s="11">
+        <f t="shared" si="34"/>
+        <v>11647.692466002336</v>
+      </c>
+      <c r="AZ16" s="11">
+        <f t="shared" si="34"/>
+        <v>11531.215541342313</v>
+      </c>
+      <c r="BA16" s="11">
+        <f t="shared" si="34"/>
+        <v>11415.90338592889</v>
+      </c>
+      <c r="BB16" s="11">
+        <f t="shared" si="34"/>
+        <v>11301.744352069602</v>
+      </c>
+      <c r="BC16" s="11">
+        <f t="shared" si="34"/>
+        <v>11188.726908548906</v>
+      </c>
+      <c r="BD16" s="11">
+        <f t="shared" si="34"/>
+        <v>11076.839639463416</v>
+      </c>
+      <c r="BE16" s="11">
+        <f t="shared" si="34"/>
+        <v>10966.071243068782</v>
+      </c>
+      <c r="BF16" s="11">
+        <f t="shared" si="34"/>
+        <v>10856.410530638093</v>
+      </c>
+      <c r="BG16" s="11">
+        <f t="shared" si="34"/>
+        <v>10747.846425331712</v>
+      </c>
+      <c r="BH16" s="11">
+        <f t="shared" si="34"/>
+        <v>10640.367961078395</v>
+      </c>
+      <c r="BI16" s="11">
+        <f t="shared" si="34"/>
+        <v>10533.96428146761</v>
+      </c>
+      <c r="BJ16" s="11">
+        <f t="shared" si="34"/>
+        <v>10428.624638652933</v>
+      </c>
+      <c r="BK16" s="11">
+        <f t="shared" si="34"/>
+        <v>10324.338392266403</v>
+      </c>
+      <c r="BL16" s="11">
+        <f t="shared" si="34"/>
+        <v>10221.09500834374</v>
+      </c>
+      <c r="BM16" s="11">
+        <f t="shared" si="34"/>
+        <v>10118.884058260302</v>
+      </c>
+      <c r="BN16" s="11">
+        <f t="shared" si="34"/>
+        <v>10017.695217677699</v>
+      </c>
+      <c r="BO16" s="11">
+        <f t="shared" si="34"/>
+        <v>9917.518265500923</v>
+      </c>
+      <c r="BP16" s="11">
+        <f t="shared" si="34"/>
+        <v>9818.3430828459132</v>
+      </c>
+      <c r="BQ16" s="11">
+        <f t="shared" si="34"/>
+        <v>9720.1596520174535</v>
+      </c>
+      <c r="BR16" s="11">
+        <f t="shared" si="34"/>
+        <v>9622.9580554972781</v>
+      </c>
+      <c r="BS16" s="11">
+        <f t="shared" si="34"/>
+        <v>9526.7284749423052</v>
+      </c>
+      <c r="BT16" s="11">
+        <f t="shared" si="34"/>
+        <v>9431.461190192882</v>
+      </c>
+      <c r="BU16" s="11">
+        <f t="shared" si="34"/>
+        <v>9337.1465782909527</v>
+      </c>
+      <c r="BV16" s="11">
+        <f t="shared" si="34"/>
+        <v>9243.7751125080431</v>
+      </c>
+      <c r="BW16" s="11">
+        <f t="shared" si="34"/>
+        <v>9151.3373613829626</v>
+      </c>
+      <c r="BX16" s="11">
+        <f t="shared" si="34"/>
+        <v>9059.8239877691321</v>
+      </c>
+      <c r="BY16" s="11">
+        <f t="shared" si="34"/>
+        <v>8969.2257478914416</v>
+      </c>
+      <c r="BZ16" s="11">
+        <f t="shared" si="34"/>
+        <v>8879.5334904125266</v>
+      </c>
+      <c r="CA16" s="11">
+        <f t="shared" si="34"/>
+        <v>8790.7381555084012</v>
+      </c>
+      <c r="CB16" s="11">
+        <f t="shared" si="34"/>
+        <v>8702.8307739533175</v>
+      </c>
+      <c r="CC16" s="11">
+        <f t="shared" si="34"/>
+        <v>8615.802466213785</v>
+      </c>
+      <c r="CD16" s="11">
+        <f t="shared" si="34"/>
+        <v>8529.6444415516471</v>
+      </c>
+      <c r="CE16" s="11">
+        <f t="shared" si="34"/>
+        <v>8444.3479971361303</v>
+      </c>
+      <c r="CF16" s="11">
+        <f t="shared" si="34"/>
+        <v>8359.9045171647685</v>
+      </c>
+      <c r="CG16" s="11">
+        <f t="shared" si="34"/>
+        <v>8276.3054719931206</v>
+      </c>
+      <c r="CH16" s="11">
+        <f t="shared" si="34"/>
+        <v>8193.5424172731891</v>
+      </c>
+      <c r="CI16" s="11">
+        <f t="shared" si="34"/>
+        <v>8111.6069931004567</v>
+      </c>
+      <c r="CJ16" s="11">
+        <f t="shared" si="34"/>
+        <v>8030.4909231694519</v>
+      </c>
+      <c r="CK16" s="11">
+        <f t="shared" si="34"/>
+        <v>7950.1860139377577</v>
+      </c>
+      <c r="CL16" s="11">
+        <f t="shared" ref="CL16:CM16" si="35">+CK16*(1+$AA20)</f>
+        <v>7870.6841537983801</v>
+      </c>
+      <c r="CM16" s="11">
+        <f t="shared" si="35"/>
+        <v>7791.9773122603965</v>
       </c>
     </row>
     <row r="17" spans="2:29" x14ac:dyDescent="0.2">
@@ -2819,47 +2944,47 @@
         <v>49</v>
       </c>
       <c r="C17" s="12">
-        <f>C16/C18</f>
+        <f t="shared" ref="C17:M17" si="36">C16/C18</f>
         <v>1.8094645080946439</v>
       </c>
       <c r="D17" s="12">
-        <f>D16/D18</f>
+        <f t="shared" si="36"/>
         <v>3.5938283993978923</v>
       </c>
       <c r="E17" s="12">
-        <f>E16/E18</f>
+        <f t="shared" si="36"/>
         <v>4.3663640948058475</v>
       </c>
       <c r="F17" s="12">
-        <f>F16/F18</f>
+        <f t="shared" si="36"/>
         <v>4.6120951417004044</v>
       </c>
       <c r="G17" s="12">
-        <f>G16/G18</f>
+        <f t="shared" si="36"/>
         <v>4.9539007092198606</v>
       </c>
       <c r="H17" s="12">
-        <f>H16/H18</f>
+        <f t="shared" si="36"/>
         <v>4.9306754697816144</v>
       </c>
       <c r="I17" s="12">
-        <f>I16/I18</f>
+        <f t="shared" si="36"/>
         <v>4.8129130655821033</v>
       </c>
       <c r="J17" s="12">
-        <f>J16/J18</f>
+        <f t="shared" si="36"/>
         <v>5.2008633824276282</v>
       </c>
       <c r="K17" s="12">
-        <f>K16/K18</f>
+        <f t="shared" si="36"/>
         <v>3.1084582169164339</v>
       </c>
       <c r="L17" s="12">
-        <f>L16/L18</f>
+        <f t="shared" si="36"/>
         <v>4.070393900889453</v>
       </c>
       <c r="M17" s="12">
-        <f>M16/M18</f>
+        <f t="shared" si="36"/>
         <v>5.2783426537874929</v>
       </c>
       <c r="N17" s="9"/>
@@ -2868,14 +2993,7 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="X17" s="9">
-        <f>+AC16-X16</f>
-        <v>4948.4801604569984</v>
-      </c>
-      <c r="Y17" s="7">
-        <f>+X17/5</f>
-        <v>989.69603209139973</v>
-      </c>
+      <c r="X17" s="9"/>
       <c r="AC17" s="11"/>
     </row>
     <row r="18" spans="2:29" x14ac:dyDescent="0.2">
@@ -2924,7 +3042,7 @@
     </row>
     <row r="19" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B19" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J19" s="15">
         <v>42.4</v>
@@ -2932,7 +3050,7 @@
     </row>
     <row r="20" spans="2:29" x14ac:dyDescent="0.2">
       <c r="Z20" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA20" s="13">
         <v>-0.01</v>
@@ -2946,27 +3064,27 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="14">
-        <f t="shared" ref="G21:L21" si="13">G5/C5-1</f>
+        <f t="shared" ref="G21:L21" si="37">G5/C5-1</f>
         <v>0.90872566772295205</v>
       </c>
       <c r="H21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>0.27102476751680338</v>
       </c>
       <c r="I21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>0.15483792811034403</v>
       </c>
       <c r="J21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>0.12547043637833966</v>
       </c>
       <c r="K21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>-0.21585485162017148</v>
       </c>
       <c r="L21" s="13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="37"/>
         <v>-9.5547860857974953E-2</v>
       </c>
       <c r="M21" s="13">
@@ -2982,11 +3100,11 @@
         <v>0.42861739130434784</v>
       </c>
       <c r="P21" s="13">
-        <f t="shared" ref="O21:Q21" si="14">P5/L5-1</f>
+        <f t="shared" ref="P21:Q21" si="38">P5/L5-1</f>
         <v>0.22520041007240366</v>
       </c>
       <c r="Q21" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="38"/>
         <v>3.6680408768898998E-2</v>
       </c>
       <c r="R21" s="13">
@@ -2995,19 +3113,19 @@
       </c>
       <c r="U21" s="13"/>
       <c r="V21" s="13">
-        <f t="shared" ref="U21:X21" si="15">+V16/U16-1</f>
-        <v>0.37878164616132604</v>
+        <f t="shared" ref="V21:W21" si="39">+V16/U16-1</f>
+        <v>0.33896804830374738</v>
       </c>
       <c r="W21" s="13">
-        <f t="shared" si="15"/>
-        <v>-2.8148449507277684E-2</v>
+        <f t="shared" si="39"/>
+        <v>-9.5729197162198854E-2</v>
       </c>
       <c r="X21" s="13">
         <f>+X16/W16-1</f>
-        <v>0.3369997869060386</v>
+        <v>0.29264858023075813</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AA21" s="13">
         <v>0.05</v>
@@ -3018,23 +3136,23 @@
         <v>52</v>
       </c>
       <c r="C22" s="13">
-        <f t="shared" ref="C22:H22" si="16">C7/C5</f>
+        <f t="shared" ref="C22:G22" si="40">C7/C5</f>
         <v>0.48975780896333176</v>
       </c>
       <c r="D22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.49065463585305219</v>
       </c>
       <c r="E22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.51809355692850834</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.51489844794874184</v>
       </c>
       <c r="G22" s="13">
-        <f t="shared" si="16"/>
+        <f t="shared" si="40"/>
         <v>0.50594408704159388</v>
       </c>
       <c r="H22" s="13">
@@ -3046,15 +3164,15 @@
         <v>0.51874719016933912</v>
       </c>
       <c r="J22" s="13">
-        <f t="shared" ref="J22:L22" si="17">J7/J5</f>
+        <f t="shared" ref="J22:L22" si="41">J7/J5</f>
         <v>0.5136520657731104</v>
       </c>
       <c r="K22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0.50975425330812851</v>
       </c>
       <c r="L22" s="13">
-        <f t="shared" si="17"/>
+        <f t="shared" si="41"/>
         <v>0.51454475555840329</v>
       </c>
       <c r="M22" s="13">
@@ -3066,42 +3184,42 @@
         <v>0.51</v>
       </c>
       <c r="O22" s="13">
-        <f t="shared" ref="O22:R22" si="18">O7/O5</f>
+        <f t="shared" ref="O22:R22" si="42">O7/O5</f>
         <v>0.51</v>
       </c>
       <c r="P22" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>0.51</v>
       </c>
       <c r="Q22" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>0.51</v>
       </c>
       <c r="R22" s="13">
-        <f t="shared" si="18"/>
+        <f t="shared" si="42"/>
         <v>0.51</v>
       </c>
       <c r="V22" s="13">
-        <f t="shared" ref="V22:X22" si="19">V7/V5</f>
-        <v>0.51294881796904768</v>
+        <f t="shared" ref="V22:X22" si="43">V7/V5</f>
+        <v>0.51</v>
       </c>
       <c r="W22" s="13">
-        <f t="shared" si="19"/>
-        <v>0.531604917747871</v>
+        <f t="shared" si="43"/>
+        <v>0.51</v>
       </c>
       <c r="X22" s="13">
-        <f t="shared" si="19"/>
-        <v>0.54433830472375178</v>
+        <f t="shared" si="43"/>
+        <v>0.51</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AA22" s="16">
-        <f>NPV(AA21,U16:CM16)</f>
-        <v>220732.80450391708</v>
+        <f>NPV(AA21,X16:CM16)</f>
+        <v>224791.64247932218</v>
       </c>
       <c r="AC22" s="13">
-        <f t="shared" ref="AC22" si="20">AC7/AC5</f>
+        <f t="shared" ref="AC22" si="44">AC7/AC5</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -3110,23 +3228,23 @@
         <v>53</v>
       </c>
       <c r="C23" s="13">
-        <f t="shared" ref="C23:H23" si="21">C14/C11</f>
+        <f t="shared" ref="C23:G23" si="45">C14/C11</f>
         <v>0.14580678052510845</v>
       </c>
       <c r="D23" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>0.14890528607717429</v>
       </c>
       <c r="E23" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>0.12999742068609754</v>
       </c>
       <c r="F23" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>0.16820450051784203</v>
       </c>
       <c r="G23" s="13">
-        <f t="shared" si="21"/>
+        <f t="shared" si="45"/>
         <v>0.13723356009070289</v>
       </c>
       <c r="H23" s="13">
@@ -3138,15 +3256,15 @@
         <v>0.15748717008797655</v>
       </c>
       <c r="J23" s="13">
-        <f t="shared" ref="J23:L23" si="22">J14/J11</f>
+        <f t="shared" ref="J23:L23" si="46">J14/J11</f>
         <v>0.16121075295789958</v>
       </c>
       <c r="K23" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>0.16098893201092426</v>
       </c>
       <c r="L23" s="13">
-        <f t="shared" si="22"/>
+        <f t="shared" si="46"/>
         <v>0.15894472909626081</v>
       </c>
       <c r="M23" s="13">
@@ -3158,67 +3276,67 @@
         <v>0.15205403257846642</v>
       </c>
       <c r="O23" s="13">
-        <f t="shared" ref="O23:R23" si="23">O14/O11</f>
+        <f t="shared" ref="O23:R23" si="47">O14/O11</f>
         <v>0.12850638845541146</v>
       </c>
       <c r="P23" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>0.12752402775430188</v>
       </c>
       <c r="Q23" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>0.12655269623642912</v>
       </c>
       <c r="R23" s="13">
-        <f t="shared" si="23"/>
+        <f t="shared" si="47"/>
         <v>0.1255923069492573</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AA23" s="11">
         <f>+AA22/Main!G4</f>
-        <v>561.66108016263888</v>
+        <v>571.9889121611252</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B24" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J24" s="13">
-        <f>+J8/J5</f>
+        <f t="shared" ref="J24:R24" si="48">+J8/J5</f>
         <v>0.14388558795080833</v>
       </c>
       <c r="K24" s="13">
-        <f>+K8/K5</f>
+        <f t="shared" si="48"/>
         <v>0.19506616257088849</v>
       </c>
       <c r="L24" s="13">
-        <f>+L8/L5</f>
+        <f t="shared" si="48"/>
         <v>0.17629909655923626</v>
       </c>
       <c r="M24" s="13">
-        <f>+M8/M5</f>
+        <f t="shared" si="48"/>
         <v>0.14130944250264488</v>
       </c>
       <c r="N24" s="13">
-        <f>+N8/N5</f>
+        <f t="shared" si="48"/>
         <v>0.15741728395061727</v>
       </c>
       <c r="O24" s="13">
-        <f>+O8/O5</f>
+        <f t="shared" si="48"/>
         <v>0.14341175639301737</v>
       </c>
       <c r="P24" s="13">
-        <f>+P8/P5</f>
+        <f t="shared" si="48"/>
         <v>0.14453398470349615</v>
       </c>
       <c r="Q24" s="13">
-        <f>+Q8/Q5</f>
+        <f t="shared" si="48"/>
         <v>0.14566265184022964</v>
       </c>
       <c r="R24" s="13">
-        <f>+R8/R5</f>
+        <f t="shared" si="48"/>
         <v>0.1467977581271015</v>
       </c>
       <c r="S24" s="13"/>
@@ -3240,7 +3358,7 @@
         <v>0.1451185012777749</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AA24" s="7">
         <v>758</v>
@@ -3263,14 +3381,14 @@
         <v>4.2683955860165081E-2</v>
       </c>
       <c r="Z25" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AA25" s="13">
         <f>+AA23/AA24-1</f>
-        <v>-0.25902232168517303</v>
-      </c>
-      <c r="AC25" s="13">
-        <v>0.04</v>
+        <v>-0.24539721350775034</v>
+      </c>
+      <c r="AC25" s="13" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="2:29" x14ac:dyDescent="0.2">
@@ -3283,7 +3401,7 @@
     </row>
     <row r="27" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L27" s="9">
         <v>205.3</v>
@@ -3291,7 +3409,7 @@
     </row>
     <row r="28" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B28" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L28" s="9">
         <f>+L26+L27-L44</f>
@@ -3300,7 +3418,7 @@
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B29" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="L29" s="9">
         <f>4475.8+0</f>
@@ -3309,7 +3427,7 @@
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B30" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30" s="9">
         <f>977+64</f>
@@ -3318,7 +3436,7 @@
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B31" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L31" s="9">
         <v>684.8</v>
@@ -3326,7 +3444,7 @@
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B32" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L32" s="9">
         <v>435</v>
@@ -3334,7 +3452,7 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B33" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L33" s="9">
         <v>10972.3</v>
@@ -3342,7 +3460,7 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B34" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L34" s="9">
         <f>1889.4+702.8+686.4</f>
@@ -3351,7 +3469,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L35" s="9">
         <v>1872.4</v>
@@ -3359,7 +3477,7 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L36" s="9">
         <v>929.3</v>
@@ -3375,7 +3493,7 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B38" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L38" s="9">
         <v>4588.6000000000004</v>
@@ -3383,7 +3501,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B39" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L39" s="9">
         <v>6084</v>
@@ -3391,7 +3509,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B40" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L40" s="9">
         <v>358</v>
@@ -3399,7 +3517,7 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B41" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L41" s="9">
         <f>+SUM(L26:L40)</f>
@@ -3408,7 +3526,7 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B43" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L43" s="9">
         <v>16132.3</v>
@@ -3424,7 +3542,7 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B45" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L45" s="9">
         <v>351.9</v>
@@ -3432,7 +3550,7 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B46" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L46" s="9">
         <v>4463</v>
@@ -3440,7 +3558,7 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B47" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L47" s="9">
         <v>474.4</v>
@@ -3448,7 +3566,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B48" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L48" s="9">
         <f>+SUM(L43:L47)</f>
@@ -3457,7 +3575,7 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B50" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L50" s="9">
         <v>14711.2</v>
@@ -3465,7 +3583,7 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B51" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L51" s="9">
         <f>+L50+L48</f>
@@ -3474,8 +3592,9 @@
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B54" s="7" t="s">
-        <v>94</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="L54" s="11"/>
       <c r="U54" s="9">
         <v>5348.1</v>
       </c>
@@ -3488,7 +3607,7 @@
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B55" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U55" s="9">
         <v>5624.2</v>
@@ -3502,7 +3621,7 @@
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B56" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U56" s="9">
         <v>583.6</v>
@@ -3513,7 +3632,7 @@
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="U57" s="9">
         <f>39.6+68.96+278.5-564.2+15.3+2441.2</f>
@@ -3526,7 +3645,7 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U58" s="9">
         <f>+SUM(U55:U57)</f>
@@ -3537,20 +3656,7 @@
         <v>5443.4</v>
       </c>
     </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B60" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B61" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B62" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="U62" s="7">
         <v>1281.8</v>
       </c>
@@ -3562,65 +3668,7 @@
         <v>2371.1600000000003</v>
       </c>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B63" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B64" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B65" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B66" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B67" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B69" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B70" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B71" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B72" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B73" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B74" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
-      <c r="B76" s="7" t="s">
-        <v>109</v>
-      </c>
+    <row r="76" spans="21:25" x14ac:dyDescent="0.2">
       <c r="U76" s="9">
         <f>+U58-U62</f>
         <v>7205.36</v>
@@ -3633,10 +3681,10 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="79" spans="21:25" x14ac:dyDescent="0.2">
       <c r="Y79" s="13"/>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="21:25" x14ac:dyDescent="0.2">
       <c r="Y80" s="16"/>
     </row>
     <row r="81" spans="25:25" x14ac:dyDescent="0.2">
@@ -3668,6 +3716,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="f93d7efc-1e24-428e-8f6d-76e776254fc6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002B14687B7451F94EA64C5F4B31F85A87" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="823ea21def8fb4e793859f9713f5f2db">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f93d7efc-1e24-428e-8f6d-76e776254fc6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1e858d3a660684fb6d5cab4c36a9507d" ns3:_="">
     <xsd:import namespace="f93d7efc-1e24-428e-8f6d-76e776254fc6"/>
@@ -3823,37 +3888,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="f93d7efc-1e24-428e-8f6d-76e776254fc6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201FAF07-5E67-42D6-B335-CC2135A15CDD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B000DAC-5EAD-4340-9EF8-A337F3287E32}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f93d7efc-1e24-428e-8f6d-76e776254fc6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3875,9 +3913,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B000DAC-5EAD-4340-9EF8-A337F3287E32}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201FAF07-5E67-42D6-B335-CC2135A15CDD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f93d7efc-1e24-428e-8f6d-76e776254fc6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>